--- a/static/execl/100.xlsx
+++ b/static/execl/100.xlsx
@@ -14,105 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>17012080001</t>
-  </si>
-  <si>
-    <t>17012090001</t>
-  </si>
-  <si>
-    <t>17012120001</t>
-  </si>
-  <si>
-    <t>17012080002</t>
-  </si>
-  <si>
-    <t>17012090002</t>
-  </si>
-  <si>
-    <t>17012120002</t>
-  </si>
-  <si>
-    <t>17012080003</t>
-  </si>
-  <si>
-    <t>17012090003</t>
-  </si>
-  <si>
-    <t>17012120003</t>
-  </si>
-  <si>
-    <t>17012080004</t>
-  </si>
-  <si>
-    <t>17012090004</t>
-  </si>
-  <si>
-    <t>17012120004</t>
-  </si>
-  <si>
-    <t>17012080005</t>
-  </si>
-  <si>
-    <t>17012090005</t>
-  </si>
-  <si>
-    <t>17012120005</t>
-  </si>
-  <si>
-    <t>17012080006</t>
-  </si>
-  <si>
-    <t>17012090006</t>
-  </si>
-  <si>
-    <t>17012120006</t>
-  </si>
-  <si>
-    <t>17012080007</t>
-  </si>
-  <si>
-    <t>17012090007</t>
-  </si>
-  <si>
-    <t>17012120007</t>
-  </si>
-  <si>
-    <t>17012080008</t>
-  </si>
-  <si>
-    <t>17012090008</t>
-  </si>
-  <si>
-    <t>17012120008</t>
-  </si>
-  <si>
-    <t>17012080009</t>
-  </si>
-  <si>
-    <t>17012090009</t>
-  </si>
-  <si>
-    <t>17012120009</t>
-  </si>
-  <si>
-    <t>17012080010</t>
-  </si>
-  <si>
-    <t>17012090010</t>
-  </si>
-  <si>
-    <t>17012120010</t>
-  </si>
-  <si>
-    <t>17012080011</t>
-  </si>
-  <si>
-    <t>17012090011</t>
-  </si>
-  <si>
-    <t>17012120011</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>1601206010</t>
+  </si>
+  <si>
+    <t>1601206020</t>
+  </si>
+  <si>
+    <t>1601206000</t>
+  </si>
+  <si>
+    <t>1601206011</t>
+  </si>
+  <si>
+    <t>1601206021</t>
+  </si>
+  <si>
+    <t>1601206001</t>
+  </si>
+  <si>
+    <t>1601206012</t>
+  </si>
+  <si>
+    <t>1601206022</t>
+  </si>
+  <si>
+    <t>1601206002</t>
+  </si>
+  <si>
+    <t>1601206013</t>
+  </si>
+  <si>
+    <t>1601206023</t>
+  </si>
+  <si>
+    <t>1601206003</t>
   </si>
 </sst>
 </file>
@@ -444,129 +381,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
